--- a/results/other/tables.xlsx
+++ b/results/other/tables.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majacannavo/Documents/RE-rosgen.nosync/data/derived/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majacannavo/Documents/RE-rosgen.nosync/results/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DB805-EF4D-134B-89EB-2E6CAC164DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18CCA5A-C8BF-BF43-929F-B81A280AEBE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="2780" windowWidth="28040" windowHeight="16360" xr2:uid="{78DC375D-EE1D-4D46-A123-5BD7711FB2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Variable</t>
   </si>
@@ -132,19 +132,13 @@
     <t>Bedrock</t>
   </si>
   <si>
-    <t>C1b</t>
-  </si>
-  <si>
     <t>Kasprak et al. p. 18</t>
   </si>
   <si>
     <t>Rosgen classification chart</t>
   </si>
   <si>
-    <t>note: this slope is higher than any option listed for type C streams</t>
-  </si>
-  <si>
-    <t>I went with the highest slope option for type C streams, and the choice that corresponds to bedrock</t>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -496,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47362C59-6B90-4546-BEF3-8DF2AC134708}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -665,7 +659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -673,12 +667,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -689,21 +683,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.10299999999999999</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -711,21 +702,18 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/results/other/tables.xlsx
+++ b/results/other/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majacannavo/Documents/RE-rosgen.nosync/results/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18CCA5A-C8BF-BF43-929F-B81A280AEBE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062CC33F-2B37-7542-888A-EB8FF85ACCB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="2780" windowWidth="28040" windowHeight="16360" xr2:uid="{78DC375D-EE1D-4D46-A123-5BD7711FB2A7}"/>
   </bookViews>
@@ -129,16 +129,16 @@
     <t>according to champs, it's 1.37</t>
   </si>
   <si>
-    <t>Bedrock</t>
-  </si>
-  <si>
-    <t>Kasprak et al. p. 18</t>
-  </si>
-  <si>
     <t>Rosgen classification chart</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table in 3-Classification (grain size is 61) </t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,10 +699,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,10 +710,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
